--- a/data/raw/worldbank_air_transport_unclean.xlsx
+++ b/data/raw/worldbank_air_transport_unclean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Data Warehouse\Sri-Lankan-Airlines-Data-Warehouse-\data_sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Data Warehouse\Sri-Lankan-Airlines-Data-Warehouse-\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42221743-158A-4745-AA7B-41E6BF3A8D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23960DF-DEC5-4C63-8C36-9758CE311969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9270" xr2:uid="{B92F04CE-E9A8-4B2A-A1F7-1D75D324AEF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B92F04CE-E9A8-4B2A-A1F7-1D75D324AEF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>country_name</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>LK</t>
-  </si>
-  <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>20a4</t>
   </si>
   <si>
     <t>India</t>
@@ -488,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11747FD5-8DD4-430C-B67D-15519CAAB6AD}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,8 +557,8 @@
       <c r="C5" s="2">
         <v>2021</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
+      <c r="D5" s="2">
+        <v>4200000</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -602,8 +596,8 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
+      <c r="C8" s="2">
+        <v>2010</v>
       </c>
       <c r="D8" s="3">
         <v>2400000</v>
@@ -625,10 +619,10 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>2022</v>
@@ -639,10 +633,10 @@
     </row>
     <row r="11" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>2022</v>
@@ -667,10 +661,10 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
         <v>2021</v>
@@ -681,10 +675,10 @@
     </row>
     <row r="14" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2">
         <v>2021</v>
@@ -723,10 +717,10 @@
     </row>
     <row r="17" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
         <v>2022</v>
